--- a/notes/mw_code_analysis_tag.xlsx
+++ b/notes/mw_code_analysis_tag.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1116" windowWidth="23040" windowHeight="9972" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="23040" windowHeight="9972" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Sequence" sheetId="2" r:id="rId2"/>
     <sheet name="Mifare_Kovio_crash" sheetId="4" r:id="rId3"/>
-    <sheet name="Tag Java Layer" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Tag Java Layer" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
   <si>
     <t>Events</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -766,10 +767,6 @@
     <t>status  = isStart ? NFA_StartRfDiscovery () : NFA_StopRfDiscovery ();</t>
   </si>
   <si>
-    <t>/* stuck here? */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nfa_dm_cb.disc_cb.disc_flags &amp;= ~NFA_DM_DISC_FLAGS_CHECKING;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -838,10 +835,6 @@
   </si>
   <si>
     <t>/* suppose to send deactivate_cmd here, then we can notify sNfaEnableDisablePollingEvent */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* actually we didn't send deactivate_cmd because old_sleep_wakeup_flag=true? */</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -929,6 +922,28 @@
       </rPr>
       <t>, 0, NFA_DM_DISC_TIMEOUT_KOVIO_PRESENCE_CHECK);</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        nfa_dm_disc_sm_execute (NFA_DM_RF_DEACTIVATE_CMD, (void *) &amp;deactivate_type);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return NFA_STATUS_OK;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* state = HOST_SELECT,  so we get into this branch */</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* stuck here, because deactivate_cmd was not sent and we didn't get any response */</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* actually we didn't send deactivate_cmd because old_sleep_wakeup_flag=true */</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1130,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2379,55 +2397,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2458,7 +2476,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
         <v>108</v>
@@ -2466,7 +2484,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
         <v>109</v>
@@ -2482,7 +2500,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
         <v>111</v>
@@ -2583,10 +2601,10 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="4"/>
+      <c r="H30" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2660,7 +2678,7 @@
         <v>124</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2677,7 +2695,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2688,33 +2706,33 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>101</v>
@@ -2722,7 +2740,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2732,15 +2750,12 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -2753,7 +2768,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O60" t="s">
         <v>126</v>
@@ -2761,45 +2776,79 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O71" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="N72" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N73" t="s">
-        <v>157</v>
+      <c r="O73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
-      </c>
-      <c r="O74" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="O76" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2811,6 +2860,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N15"/>
   <sheetViews>
